--- a/european_freshwater_invertebrates/settings.xlsx
+++ b/european_freshwater_invertebrates/settings.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillmacher/Desktop/Projects/dbDNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillmacher/Documents/GitHub/dbDNA/european_freshwater_invertebrates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0C1DE-9B80-3D4E-8933-1B94E454C5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E721007B-83B0-144C-9790-55B93107520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40040" yWindow="11040" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{B4332018-13A6-1A47-B718-0A0B8A189F51}"/>
+    <workbookView xWindow="4220" yWindow="660" windowWidth="33300" windowHeight="26560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -32,53 +29,110 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+  <si>
+    <t>No.</t>
+  </si>
   <si>
     <t>Task</t>
   </si>
   <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>BOLD</t>
+  </si>
+  <si>
+    <t>define source</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>download BOLD/NCBI data</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>extract BOLD/NCBI data</t>
+  </si>
+  <si>
+    <t>phylogeny</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>calculate phylogenetic trees</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>create table and rate records</t>
+  </si>
+  <si>
+    <t>create database</t>
+  </si>
+  <si>
+    <t>create blast database</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>extract</t>
-  </si>
-  <si>
-    <t>phylogeny</t>
-  </si>
-  <si>
-    <t>calculate phylogenetic trees</t>
-  </si>
-  <si>
-    <t>create table and rate records</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
     <t>User input</t>
   </si>
   <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>project name</t>
+  </si>
+  <si>
+    <t>Name of the output files</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>taxa list</t>
+  </si>
+  <si>
     <t>Excel file containing taxa to download</t>
   </si>
   <si>
-    <t>taxa list</t>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>identifier whitelist</t>
+  </si>
+  <si>
+    <t>Enter path to identifier whitelist</t>
+  </si>
+  <si>
+    <t>location whitelist</t>
+  </si>
+  <si>
+    <t>Enter path to location whitelist</t>
   </si>
   <si>
     <t>output folder</t>
@@ -87,142 +141,154 @@
     <t>Enter path to output directory</t>
   </si>
   <si>
-    <t>identifier whitelist</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>location whitelist</t>
-  </si>
-  <si>
-    <t>Enter path to identifier whitelist</t>
-  </si>
-  <si>
-    <t>Enter path to location whitelist</t>
+    <t>marker</t>
+  </si>
+  <si>
+    <t>COI-5P</t>
+  </si>
+  <si>
+    <t>Marker to download</t>
+  </si>
+  <si>
+    <t>yes / no</t>
   </si>
   <si>
     <t>mafft executable</t>
   </si>
   <si>
-    <t>iqtree executable</t>
-  </si>
-  <si>
-    <t>mptp executable</t>
-  </si>
-  <si>
     <t>Either "mafft" or "PATH/TO/mafft"</t>
   </si>
   <si>
-    <t>Either "iqtree" or "PATH/TO/iqtree"</t>
-  </si>
-  <si>
     <t>Either "mptp" or "PATH/TO/mptp"</t>
   </si>
   <si>
-    <t>project name</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>yes / no</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Name of the output files</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>download overwrite</t>
-  </si>
-  <si>
-    <t>Overwrite existing files?</t>
-  </si>
-  <si>
-    <t>alignment overwrite</t>
-  </si>
-  <si>
-    <t>tree overwrite</t>
-  </si>
-  <si>
-    <t>marker</t>
-  </si>
-  <si>
-    <t>Marker to download</t>
-  </si>
-  <si>
     <t>makeblastdb executable</t>
   </si>
   <si>
+    <t>makeblastdb</t>
+  </si>
+  <si>
     <t>Either "makeblastdb" or "PATH/TO/makeblastdb"</t>
   </si>
   <si>
-    <t>create database</t>
-  </si>
-  <si>
-    <t>create blast database</t>
-  </si>
-  <si>
-    <t>rating minimum</t>
-  </si>
-  <si>
-    <t>keep only sequence that are &gt;= X</t>
-  </si>
-  <si>
-    <t>download BOLD/NCBI data</t>
-  </si>
-  <si>
-    <t>extract BOLD/NCBI data</t>
-  </si>
-  <si>
-    <t>NCBI</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>define source</t>
-  </si>
-  <si>
     <t>MIDORI2 fasta</t>
   </si>
   <si>
-    <t>/Users/tillmacher/Desktop/Projects/dbDNA/Freshwaterecology_info_all_fish.xlsx</t>
-  </si>
-  <si>
-    <t>/Users/tillmacher/Desktop/Projects/dbDNA/identifier_white_list.xlsx</t>
-  </si>
-  <si>
-    <t>/Users/tillmacher/Desktop/Projects/dbDNA/country_white_list.xlsx</t>
-  </si>
-  <si>
-    <t>/Users/tillmacher/Desktop/Projects/dbDNA</t>
-  </si>
-  <si>
-    <t>srRNA</t>
+    <t>/Volumes/Coruscant/dbDNA</t>
   </si>
   <si>
     <t>mafft</t>
   </si>
   <si>
-    <t>/Users/tillmacher/Desktop/Projects/dbDNA/programs/mptp</t>
-  </si>
-  <si>
-    <t>/Users/tillmacher/Desktop/Projects/dbDNA/programs/iqtree2</t>
-  </si>
-  <si>
-    <t>makeblastdb</t>
-  </si>
-  <si>
-    <t>/Users/tillmacher/Downloads/MIDORI2_UNIQ_NUC_GB259_srRNA_BLAST.fasta</t>
-  </si>
-  <si>
-    <t>European_fish</t>
+    <t>Enter path to the MIDORI2 fasta file</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>distance1</t>
+  </si>
+  <si>
+    <t>distance2</t>
+  </si>
+  <si>
+    <t>distance3</t>
+  </si>
+  <si>
+    <t>Point to measure the distance</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>recieve 3p</t>
+  </si>
+  <si>
+    <t>coordinates</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Use coordinates</t>
+  </si>
+  <si>
+    <t>Use country</t>
+  </si>
+  <si>
+    <t>cpu count</t>
+  </si>
+  <si>
+    <t>vsearch executable</t>
+  </si>
+  <si>
+    <t>/Volumes/Coruscant/dbDNA/programs/vsearch/vsearch_macos</t>
+  </si>
+  <si>
+    <t>/Volumes/Coruscant/dbDNA/input_files/dbDNA_Whitelist_240922.xlsx</t>
+  </si>
+  <si>
+    <t>/Volumes/Coruscant/dbDNA/input_files/country_white_list.xlsx</t>
+  </si>
+  <si>
+    <t>create report</t>
+  </si>
+  <si>
+    <t>summarize database</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Version of the db</t>
+  </si>
+  <si>
+    <t>version comparison</t>
+  </si>
+  <si>
+    <t>compare current db to old versions</t>
+  </si>
+  <si>
+    <t>record blacklist</t>
+  </si>
+  <si>
+    <t>/Volumes/Coruscant/dbDNA/input_files/record_blacklist.xlsx</t>
+  </si>
+  <si>
+    <t>Enter path to record blacklist</t>
+  </si>
+  <si>
+    <t>blacklist</t>
+  </si>
+  <si>
+    <t>exclude records from blacklist</t>
+  </si>
+  <si>
+    <t>Number of cores to use (set to auto, if unsure)</t>
+  </si>
+  <si>
+    <t>recieve 9p</t>
+  </si>
+  <si>
+    <t>recieve 6p</t>
+  </si>
+  <si>
+    <t>similarity threshold</t>
+  </si>
+  <si>
+    <t>value between 0 and 1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>/Volumes/Coruscant/dbDNA/input_files/Freshwaterecology_info_all_invertebrates_s.xlsx</t>
   </si>
 </sst>
 </file>
@@ -232,18 +298,18 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -255,8 +321,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,6 +355,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -311,39 +445,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -506,13 +640,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -521,6 +648,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -585,45 +719,65 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484B71B7-8492-F445-82D8-E7D4DAD4908C}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="308" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="1024" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -645,13 +799,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -659,13 +813,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -673,13 +827,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -687,13 +841,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -701,314 +855,404 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{89A48B83-B940-B34B-BA99-31DB85A25C7C}">
-      <formula1>"NCBI, BOLD"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"NCBI,BOLD"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7" xr:uid="{F08FFDAE-8069-5143-8BFC-2F5641DAAF0F}">
-      <formula1>"yes, no"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED456816-D57F-8544-AB2A-C8D663A35DC2}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="193" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="1023" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>51.410410248928699</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.0555783352678398</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <v>500</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B21" xr:uid="{D9773CC7-F841-F14A-9B86-809E43ADA7A0}">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>